--- a/biology/Botanique/Sipanea_pratensis/Sipanea_pratensis.xlsx
+++ b/biology/Botanique/Sipanea_pratensis/Sipanea_pratensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sipanea pratensis est une  espèce d'herbacée tropicale, appartenant à la famille des Rubiaceae. Il s'agit de l'espèce type du genre Sipanea Aubl.
-En Guyane, on l'appelle Ka'api'i pilã (Wayãpi), ou Peruβia airutiak (Palikur)[3].
+En Guyane, on l'appelle Ka'api'i pilã (Wayãpi), ou Peruβia airutiak (Palikur).
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En 1953, Lemée en propose la description suivante de Sipanea pratensis :
 « S. pratensis Aubl. Vivace, couchée ou dressée, tiges un peu poilues ; feuilles de 0,03-0,07 sur 7-17 mm., lancéolées ou, ovales-lancéolées aiguës, à, base obtuse ou aiguë, pubescentes sur les 2 faces et surtout sur les nervures, stipules acuminées poilues ; fleurs roses ou blanches, avec bractéoles linéaires, calice hispide, corolle à tube de 9-13 mm. grêles, très poilues-jaunâtres dans la gorge, à. lobes de 6-8' mm., oblongs ou ovales ; capsule de 7-8 mm., ovoïde ou tubuleuse côtelée poilue, graines très petites. Paria­cabo, Maroni (Charvein) ; herbier Lemée : Cayenne. »
-— Albert Lemée, 1953.[4]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -544,7 +558,9 @@
           <t>taxons infraspécifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>5 variétés et 4 formes ont été décrites :
 Sipanea pratensis var. dichotoma (Kunth) Steyerm., 1967
@@ -583,9 +599,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sipanea pratensis est présente en Amérique du sud (de la Colombie au Brésil, en passant par le Venezuela, Trinidad, le Guyana, le Suriname, et la Guyane[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sipanea pratensis est présente en Amérique du sud (de la Colombie au Brésil, en passant par le Venezuela, Trinidad, le Guyana, le Suriname, et la Guyane.
 </t>
         </is>
       </c>
@@ -614,10 +632,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sipanea pratensis est une petite herbe rigide des pelouses, savanes rases et inselbergs[3],[6],[7].
-La phylogénie de Sipanea pratensis a été étudiée[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sipanea pratensis est une petite herbe rigide des pelouses, savanes rases et inselbergs.
+La phylogénie de Sipanea pratensis a été étudiée.
 </t>
         </is>
       </c>
@@ -646,12 +666,14 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Guyane, les Palikur utilisent Sipanea pratensis pour soigner la conjonctivite et la cataracte chez les chiens[3].
-Les Tiriyó de l'ouest du Brésil l'emploient pour des bain fébrifuge[9].
-Selon Heckel et Aublet, Sipanea pratensis est une "plante astringente employée en tisane contre les métrites et contre la gonorrhée : la décoction en est détersive et sert à passer les ulcères"[10].
-Sipanea pratensis a été testé comme insecticide contre le moustique Aedes aegypti[11].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane, les Palikur utilisent Sipanea pratensis pour soigner la conjonctivite et la cataracte chez les chiens.
+Les Tiriyó de l'ouest du Brésil l'emploient pour des bain fébrifuge.
+Selon Heckel et Aublet, Sipanea pratensis est une "plante astringente employée en tisane contre les métrites et contre la gonorrhée : la décoction en est détersive et sert à passer les ulcères".
+Sipanea pratensis a été testé comme insecticide contre le moustique Aedes aegypti.
 </t>
         </is>
       </c>
@@ -680,9 +702,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet en a proposé le protologue suivant[12] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet en a proposé le protologue suivant : 
 « 1. SIPANEA pratenſis. (TABULA 56.) 
 Planta perennis, caules plurimos, pedales, &amp; bipedales, ramoſos, nodoſos è radice ernittens, partim erectos, partim ſupinos ; qui decumbunt, è nodis RADICULAS protrudunt. Folia oppoſita, ſubſeſſilia, lanceolata, acuta, aſperiuſcula, integerrima. Stipula ovata, acuta, intrà baſim foliorum ad utrumque latus. Ad axillas foliorum, ſur culi oppoſiti, vel foliorum erumpentium par unum. Flores terminates, corymboſi, quini, feni, ſepteni. Perianthium ; intra lacinias iingulas ſera alba, longa, erigitur. Corolla carnei colons.
 Floret ſingulis anni menſibus.
